--- a/Code/Results/Cases/Case_5_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_65/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.064312164292176</v>
+        <v>0.8122020464430761</v>
       </c>
       <c r="C2">
-        <v>0.4405618487968184</v>
+        <v>0.134595722647191</v>
       </c>
       <c r="D2">
-        <v>0.1098493627477879</v>
+        <v>0.1849994499776031</v>
       </c>
       <c r="E2">
-        <v>0.07840560429020726</v>
+        <v>0.1509367944984383</v>
       </c>
       <c r="F2">
-        <v>0.8045079141828069</v>
+        <v>1.307652727885412</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07690322845344255</v>
+        <v>0.1621527824637177</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5859903430961211</v>
+        <v>0.3355715691277226</v>
       </c>
       <c r="N2">
-        <v>0.702727433267242</v>
+        <v>1.262359827795187</v>
       </c>
       <c r="O2">
-        <v>1.910979242947377</v>
+        <v>3.087754504164849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.793040669667249</v>
+        <v>0.7328332203227035</v>
       </c>
       <c r="C3">
-        <v>0.3853195972289711</v>
+        <v>0.117459001797414</v>
       </c>
       <c r="D3">
-        <v>0.1008512736025722</v>
+        <v>0.1833800931512855</v>
       </c>
       <c r="E3">
-        <v>0.0739371099277264</v>
+        <v>0.1506820903074768</v>
       </c>
       <c r="F3">
-        <v>0.7554764042166298</v>
+        <v>1.305795992869363</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07427544480714587</v>
+        <v>0.1626666169639464</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.510774224056803</v>
+        <v>0.3150397459795542</v>
       </c>
       <c r="N3">
-        <v>0.7318175023768134</v>
+        <v>1.275168404928138</v>
       </c>
       <c r="O3">
-        <v>1.801383195132757</v>
+        <v>3.087176000199094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.626950681385352</v>
+        <v>0.6842055932467019</v>
       </c>
       <c r="C4">
-        <v>0.3514045205990044</v>
+        <v>0.1069039566617391</v>
       </c>
       <c r="D4">
-        <v>0.09540796222546533</v>
+        <v>0.1824459978109445</v>
       </c>
       <c r="E4">
-        <v>0.07129330771719111</v>
+        <v>0.1505882780729699</v>
       </c>
       <c r="F4">
-        <v>0.7269532140295212</v>
+        <v>1.305437182570287</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07280032003897219</v>
+        <v>0.1630602117257034</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4648366617452666</v>
+        <v>0.3025399794181638</v>
       </c>
       <c r="N4">
-        <v>0.7507458838366148</v>
+        <v>1.283539258625105</v>
       </c>
       <c r="O4">
-        <v>1.738360709503183</v>
+        <v>3.088817609988411</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.559359064069497</v>
+        <v>0.6644169043132706</v>
       </c>
       <c r="C5">
-        <v>0.3375803946578912</v>
+        <v>0.102594617345602</v>
       </c>
       <c r="D5">
-        <v>0.09320911070185645</v>
+        <v>0.1820805468703028</v>
       </c>
       <c r="E5">
-        <v>0.07023979142426029</v>
+        <v>0.150565808663611</v>
       </c>
       <c r="F5">
-        <v>0.7157043178521576</v>
+        <v>1.305487348835115</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07223228062035147</v>
+        <v>0.1632402463020846</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4461697689839781</v>
+        <v>0.2974733748442588</v>
       </c>
       <c r="N5">
-        <v>0.7587197827575949</v>
+        <v>1.287077808195257</v>
       </c>
       <c r="O5">
-        <v>1.7136880436897</v>
+        <v>3.089988244028802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.548140282676883</v>
+        <v>0.6611326965133912</v>
       </c>
       <c r="C6">
-        <v>0.3352845762694869</v>
+        <v>0.1018785741293016</v>
       </c>
       <c r="D6">
-        <v>0.09284512844596549</v>
+        <v>0.1820207839667702</v>
       </c>
       <c r="E6">
-        <v>0.07006626101713564</v>
+        <v>0.1505630302076781</v>
       </c>
       <c r="F6">
-        <v>0.7138584080725181</v>
+        <v>1.305507538229925</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07213990829631456</v>
+        <v>0.1632713272994089</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4430731047960776</v>
+        <v>0.2966337172371283</v>
       </c>
       <c r="N6">
-        <v>0.7600593499004802</v>
+        <v>1.287673074963372</v>
       </c>
       <c r="O6">
-        <v>1.709650324251413</v>
+        <v>3.090212913113248</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.626038781942952</v>
+        <v>0.6839386035113932</v>
       </c>
       <c r="C7">
-        <v>0.3512181032484705</v>
+        <v>0.1068458717814167</v>
       </c>
       <c r="D7">
-        <v>0.09537823092296804</v>
+        <v>0.1824410075810476</v>
       </c>
       <c r="E7">
-        <v>0.07127900465859938</v>
+        <v>0.1505879111991995</v>
       </c>
       <c r="F7">
-        <v>0.7268000209964356</v>
+        <v>1.305437064062453</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07279252748305964</v>
+        <v>0.1630625602027571</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4645847098656901</v>
+        <v>0.3024715391060084</v>
       </c>
       <c r="N7">
-        <v>0.7508523782385588</v>
+        <v>1.28358646502258</v>
       </c>
       <c r="O7">
-        <v>1.738023960257919</v>
+        <v>3.088831366950131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.970662849451088</v>
+        <v>0.7848144384463467</v>
       </c>
       <c r="C8">
-        <v>0.4215107360738557</v>
+        <v>0.1286939708747354</v>
       </c>
       <c r="D8">
-        <v>0.1067291719765961</v>
+        <v>0.1844286393235279</v>
       </c>
       <c r="E8">
-        <v>0.0768433598490148</v>
+        <v>0.150835998751937</v>
       </c>
       <c r="F8">
-        <v>0.7872589773048304</v>
+        <v>1.306850338438394</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07596740247020151</v>
+        <v>0.1623137448550551</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5599994800644268</v>
+        <v>0.3284701807485249</v>
       </c>
       <c r="N8">
-        <v>0.7125313803410265</v>
+        <v>1.266671156984074</v>
       </c>
       <c r="O8">
-        <v>1.872264578881243</v>
+        <v>3.087140316565126</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.651557277463837</v>
+        <v>0.9834310707374243</v>
       </c>
       <c r="C9">
-        <v>0.5596070777302486</v>
+        <v>0.1712677543411019</v>
       </c>
       <c r="D9">
-        <v>0.1296923226742734</v>
+        <v>0.1888015522033726</v>
       </c>
       <c r="E9">
-        <v>0.08860815082175577</v>
+        <v>0.151818134162788</v>
       </c>
       <c r="F9">
-        <v>0.9194962739318555</v>
+        <v>1.315825453781059</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08337266773144592</v>
+        <v>0.1614649933582868</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.749481438686864</v>
+        <v>0.3802916761950002</v>
       </c>
       <c r="N9">
-        <v>0.6462239604783022</v>
+        <v>1.237516110772781</v>
       </c>
       <c r="O9">
-        <v>2.17247207124754</v>
+        <v>3.099692961937137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.156959914521622</v>
+        <v>1.12980988716015</v>
       </c>
       <c r="C10">
-        <v>0.6615629235857625</v>
+        <v>0.2023739132535241</v>
       </c>
       <c r="D10">
-        <v>0.1470783913263887</v>
+        <v>0.1923012054911339</v>
       </c>
       <c r="E10">
-        <v>0.09786227519913737</v>
+        <v>0.1528409420400223</v>
       </c>
       <c r="F10">
-        <v>1.026658432074996</v>
+        <v>1.326211335182563</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08965352127458459</v>
+        <v>0.1612193798457255</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8907882035200245</v>
+        <v>0.4188671138120057</v>
       </c>
       <c r="N10">
-        <v>0.6034474951870266</v>
+        <v>1.218541556089214</v>
       </c>
       <c r="O10">
-        <v>2.420150379774896</v>
+        <v>3.118630717820793</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.388494731220476</v>
+        <v>1.196494336769376</v>
       </c>
       <c r="C11">
-        <v>0.708136894606838</v>
+        <v>0.2164858720063023</v>
       </c>
       <c r="D11">
-        <v>0.1551202000409404</v>
+        <v>0.1939550189973858</v>
       </c>
       <c r="E11">
-        <v>0.1022264168869498</v>
+        <v>0.1533714777816968</v>
       </c>
       <c r="F11">
-        <v>1.077982458220276</v>
+        <v>1.331761850221326</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09272231337661196</v>
+        <v>0.1611897731024428</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9556835201909948</v>
+        <v>0.4365235089979933</v>
       </c>
       <c r="N11">
-        <v>0.5854087560937487</v>
+        <v>1.210440145693198</v>
       </c>
       <c r="O11">
-        <v>2.539813155010734</v>
+        <v>3.129364915390624</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.476448504944813</v>
+        <v>1.221758975671207</v>
       </c>
       <c r="C12">
-        <v>0.7258085561378493</v>
+        <v>0.2218239880407111</v>
       </c>
       <c r="D12">
-        <v>0.1581863377074768</v>
+        <v>0.1945901053940702</v>
       </c>
       <c r="E12">
-        <v>0.1039031350395909</v>
+        <v>0.1535817417944401</v>
       </c>
       <c r="F12">
-        <v>1.097823863668225</v>
+        <v>1.333982585385627</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09391742300145012</v>
+        <v>0.1611903729858355</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9803598949146988</v>
+        <v>0.4432248629628148</v>
       </c>
       <c r="N12">
-        <v>0.578794201016251</v>
+        <v>1.207448586409193</v>
       </c>
       <c r="O12">
-        <v>2.586230973944595</v>
+        <v>3.133735064077626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.457493064307471</v>
+        <v>1.216317237252724</v>
       </c>
       <c r="C13">
-        <v>0.7220009637879627</v>
+        <v>0.2206745902231262</v>
       </c>
       <c r="D13">
-        <v>0.1575250316603842</v>
+        <v>0.1944529367853818</v>
       </c>
       <c r="E13">
-        <v>0.103540919426873</v>
+        <v>0.1535360416652907</v>
       </c>
       <c r="F13">
-        <v>1.093532001010047</v>
+        <v>1.333499021585141</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09365852251594475</v>
+        <v>0.1611897184468702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9750406343212461</v>
+        <v>0.4417809326093618</v>
       </c>
       <c r="N13">
-        <v>0.5802089412750817</v>
+        <v>1.208089479688297</v>
       </c>
       <c r="O13">
-        <v>2.576183307914448</v>
+        <v>3.132780284921125</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.395724939859861</v>
+        <v>1.19857262598714</v>
       </c>
       <c r="C14">
-        <v>0.709590005369364</v>
+        <v>0.2169251592593469</v>
       </c>
       <c r="D14">
-        <v>0.1553720238900667</v>
+        <v>0.1940070914761662</v>
       </c>
       <c r="E14">
-        <v>0.1023638667978446</v>
+        <v>0.1533885888331454</v>
       </c>
       <c r="F14">
-        <v>1.079606468826015</v>
+        <v>1.331942168375605</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09281995832441936</v>
+        <v>0.1611895857278327</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9577115357343615</v>
+        <v>0.4370745293209239</v>
       </c>
       <c r="N14">
-        <v>0.5848601649987515</v>
+        <v>1.210192499603842</v>
       </c>
       <c r="O14">
-        <v>2.543609256628002</v>
+        <v>3.129718327312446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.357927531213591</v>
+        <v>1.187705158037375</v>
       </c>
       <c r="C15">
-        <v>0.7019927333799956</v>
+        <v>0.2146277646717181</v>
       </c>
       <c r="D15">
-        <v>0.1540560187566626</v>
+        <v>0.1937351454785272</v>
       </c>
       <c r="E15">
-        <v>0.10164608735424</v>
+        <v>0.1532994882260823</v>
       </c>
       <c r="F15">
-        <v>1.071130674312428</v>
+        <v>1.331004035156624</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09231069475353593</v>
+        <v>0.1611910426747443</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9471106590672562</v>
+        <v>0.4341936997467286</v>
       </c>
       <c r="N15">
-        <v>0.5877377185047052</v>
+        <v>1.211490593335377</v>
       </c>
       <c r="O15">
-        <v>2.523803555401884</v>
+        <v>3.127882571649337</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.141864853605171</v>
+        <v>1.12545373749407</v>
       </c>
       <c r="C16">
-        <v>0.658523708945836</v>
+        <v>0.2014508691613912</v>
       </c>
       <c r="D16">
-        <v>0.1465556618649089</v>
+        <v>0.1921943630473493</v>
       </c>
       <c r="E16">
-        <v>0.09758033522537701</v>
+        <v>0.1528075815039287</v>
       </c>
       <c r="F16">
-        <v>1.023359106235276</v>
+        <v>1.325865224984582</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08945744400109135</v>
+        <v>0.1612229674294383</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8865606392683034</v>
+        <v>0.4177153788507084</v>
       </c>
       <c r="N16">
-        <v>0.6046559642010081</v>
+        <v>1.219081673563124</v>
       </c>
       <c r="O16">
-        <v>2.412479102283584</v>
+        <v>3.11797190894174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.00976298046902</v>
+        <v>1.087288296636984</v>
       </c>
       <c r="C17">
-        <v>0.6319114533640402</v>
+        <v>0.1933572557215371</v>
       </c>
       <c r="D17">
-        <v>0.1419896760921517</v>
+        <v>0.1912649266208888</v>
       </c>
       <c r="E17">
-        <v>0.09512698780504536</v>
+        <v>0.1525225104456815</v>
       </c>
       <c r="F17">
-        <v>0.9947370286819961</v>
+        <v>1.322924348012634</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08776305018271557</v>
+        <v>0.1612635875585369</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8495818106974298</v>
+        <v>0.4076339680218837</v>
       </c>
       <c r="N17">
-        <v>0.615406890756752</v>
+        <v>1.223874371549449</v>
       </c>
       <c r="O17">
-        <v>2.346043942660913</v>
+        <v>3.11243526347792</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.933931623649642</v>
+        <v>1.065345646410435</v>
       </c>
       <c r="C18">
-        <v>0.6166225535356773</v>
+        <v>0.1886984252591049</v>
       </c>
       <c r="D18">
-        <v>0.1393758271224783</v>
+        <v>0.190736160454918</v>
       </c>
       <c r="E18">
-        <v>0.09373029711016301</v>
+        <v>0.1523646885631749</v>
       </c>
       <c r="F18">
-        <v>0.9785144809471689</v>
+        <v>1.32131056690146</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08680822990427828</v>
+        <v>0.1612946809672522</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8283694968966557</v>
+        <v>0.4018456128867243</v>
       </c>
       <c r="N18">
-        <v>0.6217234704746772</v>
+        <v>1.226680908694902</v>
       </c>
       <c r="O18">
-        <v>2.308484045237094</v>
+        <v>3.109450176644003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.908280964468986</v>
+        <v>1.057917839449715</v>
       </c>
       <c r="C19">
-        <v>0.6114488354079128</v>
+        <v>0.1871204151584323</v>
       </c>
       <c r="D19">
-        <v>0.1384928977734745</v>
+        <v>0.1905581310496842</v>
       </c>
       <c r="E19">
-        <v>0.09325982059241866</v>
+        <v>0.1523123085999636</v>
       </c>
       <c r="F19">
-        <v>0.9730619988503264</v>
+        <v>1.320777515849585</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08648826029700274</v>
+        <v>0.1613065362003567</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8211967525821251</v>
+        <v>0.3998875374042967</v>
       </c>
       <c r="N19">
-        <v>0.6238846334803156</v>
+        <v>1.227639724314038</v>
       </c>
       <c r="O19">
-        <v>2.29587598301859</v>
+        <v>3.108473714587063</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.023809610694059</v>
+        <v>1.091350139063707</v>
       </c>
       <c r="C20">
-        <v>0.6347424842235228</v>
+        <v>0.1942192089349817</v>
       </c>
       <c r="D20">
-        <v>0.142474438748863</v>
+        <v>0.1913632647204793</v>
       </c>
       <c r="E20">
-        <v>0.09538664606634484</v>
+        <v>0.152552221082221</v>
       </c>
       <c r="F20">
-        <v>0.9977587963185499</v>
+        <v>1.323229363468144</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08794135903015388</v>
+        <v>0.1612584634590419</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8535122829081132</v>
+        <v>0.408706097362554</v>
       </c>
       <c r="N20">
-        <v>0.6142485938154252</v>
+        <v>1.223359015614705</v>
       </c>
       <c r="O20">
-        <v>2.353047924754293</v>
+        <v>3.11300400275681</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.413859869710734</v>
+        <v>1.203784313084952</v>
       </c>
       <c r="C21">
-        <v>0.7132343908640451</v>
+        <v>0.2180266168302296</v>
       </c>
       <c r="D21">
-        <v>0.1560038329282349</v>
+        <v>0.1941378081048413</v>
       </c>
       <c r="E21">
-        <v>0.1027089253477875</v>
+        <v>0.1534316454070215</v>
       </c>
       <c r="F21">
-        <v>1.083685414708825</v>
+        <v>1.332396226789328</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09306534699954483</v>
+        <v>0.1611893041385954</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9627986318358737</v>
+        <v>0.4384565023099327</v>
       </c>
       <c r="N21">
-        <v>0.5834880163902056</v>
+        <v>1.209572721532176</v>
       </c>
       <c r="O21">
-        <v>2.553146255732742</v>
+        <v>3.130609406952829</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.670414799059017</v>
+        <v>1.277339966275463</v>
       </c>
       <c r="C22">
-        <v>0.7647418728786306</v>
+        <v>0.2335523460451725</v>
       </c>
       <c r="D22">
-        <v>0.1649687002817473</v>
+        <v>0.1960025307822519</v>
       </c>
       <c r="E22">
-        <v>0.1076359950936272</v>
+        <v>0.1540609566875588</v>
       </c>
       <c r="F22">
-        <v>1.142229178476683</v>
+        <v>1.339080249918709</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09660801247991202</v>
+        <v>0.1612129508689932</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.034824812448683</v>
+        <v>0.4579889198584866</v>
       </c>
       <c r="N22">
-        <v>0.5646513444141021</v>
+        <v>1.201007150546609</v>
       </c>
       <c r="O22">
-        <v>2.690409151974563</v>
+        <v>3.143895588780737</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.533321923110975</v>
+        <v>1.238075580807845</v>
       </c>
       <c r="C23">
-        <v>0.7372297177900577</v>
+        <v>0.225269148244962</v>
       </c>
       <c r="D23">
-        <v>0.1601721368700169</v>
+        <v>0.1950026114233765</v>
       </c>
       <c r="E23">
-        <v>0.1049927055149205</v>
+        <v>0.153720096727568</v>
       </c>
       <c r="F23">
-        <v>1.110752423776191</v>
+        <v>1.335449420411166</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09469857825278183</v>
+        <v>0.161194030048641</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9963232816787979</v>
+        <v>0.4475560753049805</v>
       </c>
       <c r="N23">
-        <v>0.5745846692850733</v>
+        <v>1.205538069296843</v>
       </c>
       <c r="O23">
-        <v>2.616521184531734</v>
+        <v>3.136641437087292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.017458771776489</v>
+        <v>1.089513782602921</v>
       </c>
       <c r="C24">
-        <v>0.6334625419465851</v>
+        <v>0.1938295376376971</v>
       </c>
       <c r="D24">
-        <v>0.1422552428085879</v>
+        <v>0.191318788683347</v>
       </c>
       <c r="E24">
-        <v>0.09526921181431192</v>
+        <v>0.1525387699969123</v>
       </c>
       <c r="F24">
-        <v>0.9963919331392361</v>
+        <v>1.323091226235562</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0878606856500781</v>
+        <v>0.1612607559538759</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8517351700855613</v>
+        <v>0.4082213640474635</v>
       </c>
       <c r="N24">
-        <v>0.6147718379992142</v>
+        <v>1.223591848697843</v>
       </c>
       <c r="O24">
-        <v>2.349879455297298</v>
+        <v>3.112746258992985</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.46661020535646</v>
+        <v>0.9296177607383243</v>
       </c>
       <c r="C25">
-        <v>0.5221875913935605</v>
+        <v>0.1597801857510888</v>
       </c>
       <c r="D25">
-        <v>0.1233962978575533</v>
+        <v>0.1875679833430439</v>
       </c>
       <c r="E25">
-        <v>0.08532515575643984</v>
+        <v>0.1514994746219926</v>
       </c>
       <c r="F25">
-        <v>0.8820928806775044</v>
+        <v>1.312732273432545</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0812310689601361</v>
+        <v>0.1616282430514531</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6979034052670983</v>
+        <v>0.366183764255851</v>
       </c>
       <c r="N25">
-        <v>0.663160969101817</v>
+        <v>1.244973677795059</v>
       </c>
       <c r="O25">
-        <v>2.086846952690934</v>
+        <v>3.094594007563018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_65/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_65/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8122020464430761</v>
+        <v>2.064312164292062</v>
       </c>
       <c r="C2">
-        <v>0.134595722647191</v>
+        <v>0.4405618487966194</v>
       </c>
       <c r="D2">
-        <v>0.1849994499776031</v>
+        <v>0.1098493627478021</v>
       </c>
       <c r="E2">
-        <v>0.1509367944984383</v>
+        <v>0.07840560429017884</v>
       </c>
       <c r="F2">
-        <v>1.307652727885412</v>
+        <v>0.8045079141827927</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1621527824637177</v>
+        <v>0.0769032284533715</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3355715691277226</v>
+        <v>0.5859903430960927</v>
       </c>
       <c r="N2">
-        <v>1.262359827795187</v>
+        <v>0.7027274332672491</v>
       </c>
       <c r="O2">
-        <v>3.087754504164849</v>
+        <v>1.910979242947377</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7328332203227035</v>
+        <v>1.793040669667249</v>
       </c>
       <c r="C3">
-        <v>0.117459001797414</v>
+        <v>0.3853195972289427</v>
       </c>
       <c r="D3">
-        <v>0.1833800931512855</v>
+        <v>0.1008512736024585</v>
       </c>
       <c r="E3">
-        <v>0.1506820903074768</v>
+        <v>0.07393710992774771</v>
       </c>
       <c r="F3">
-        <v>1.305795992869363</v>
+        <v>0.7554764042166298</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1626666169639464</v>
+        <v>0.07427544480716364</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3150397459795542</v>
+        <v>0.5107742240568243</v>
       </c>
       <c r="N3">
-        <v>1.275168404928138</v>
+        <v>0.7318175023768596</v>
       </c>
       <c r="O3">
-        <v>3.087176000199094</v>
+        <v>1.801383195132757</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6842055932467019</v>
+        <v>1.626950681385068</v>
       </c>
       <c r="C4">
-        <v>0.1069039566617391</v>
+        <v>0.3514045205989191</v>
       </c>
       <c r="D4">
-        <v>0.1824459978109445</v>
+        <v>0.09540796222546533</v>
       </c>
       <c r="E4">
-        <v>0.1505882780729699</v>
+        <v>0.0712933077171698</v>
       </c>
       <c r="F4">
-        <v>1.305437182570287</v>
+        <v>0.7269532140295283</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1630602117257034</v>
+        <v>0.07280032003895442</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3025399794181638</v>
+        <v>0.4648366617452666</v>
       </c>
       <c r="N4">
-        <v>1.283539258625105</v>
+        <v>0.7507458838366325</v>
       </c>
       <c r="O4">
-        <v>3.088817609988411</v>
+        <v>1.73836070950324</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6644169043132706</v>
+        <v>1.559359064069611</v>
       </c>
       <c r="C5">
-        <v>0.102594617345602</v>
+        <v>0.3375803946581186</v>
       </c>
       <c r="D5">
-        <v>0.1820805468703028</v>
+        <v>0.09320911070173565</v>
       </c>
       <c r="E5">
-        <v>0.150565808663611</v>
+        <v>0.07023979142424963</v>
       </c>
       <c r="F5">
-        <v>1.305487348835115</v>
+        <v>0.7157043178521434</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1632402463020846</v>
+        <v>0.07223228062035503</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2974733748442588</v>
+        <v>0.446169768983971</v>
       </c>
       <c r="N5">
-        <v>1.287077808195257</v>
+        <v>0.7587197827576553</v>
       </c>
       <c r="O5">
-        <v>3.089988244028802</v>
+        <v>1.713688043689757</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6611326965133912</v>
+        <v>1.548140282676968</v>
       </c>
       <c r="C6">
-        <v>0.1018785741293016</v>
+        <v>0.3352845762694585</v>
       </c>
       <c r="D6">
-        <v>0.1820207839667702</v>
+        <v>0.0928451284458518</v>
       </c>
       <c r="E6">
-        <v>0.1505630302076781</v>
+        <v>0.07006626101712143</v>
       </c>
       <c r="F6">
-        <v>1.305507538229925</v>
+        <v>0.7138584080725323</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1632713272994089</v>
+        <v>0.07213990829623285</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2966337172371283</v>
+        <v>0.4430731047960776</v>
       </c>
       <c r="N6">
-        <v>1.287673074963372</v>
+        <v>0.7600593499004731</v>
       </c>
       <c r="O6">
-        <v>3.090212913113248</v>
+        <v>1.709650324251413</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6839386035113932</v>
+        <v>1.626038781942924</v>
       </c>
       <c r="C7">
-        <v>0.1068458717814167</v>
+        <v>0.3512181032481294</v>
       </c>
       <c r="D7">
-        <v>0.1824410075810476</v>
+        <v>0.09537823092307463</v>
       </c>
       <c r="E7">
-        <v>0.1505879111991995</v>
+        <v>0.07127900465859227</v>
       </c>
       <c r="F7">
-        <v>1.305437064062453</v>
+        <v>0.7268000209964356</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1630625602027571</v>
+        <v>0.07279252748304188</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3024715391060084</v>
+        <v>0.464584709865683</v>
       </c>
       <c r="N7">
-        <v>1.28358646502258</v>
+        <v>0.7508523782384913</v>
       </c>
       <c r="O7">
-        <v>3.088831366950131</v>
+        <v>1.738023960257919</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7848144384463467</v>
+        <v>1.97066284945123</v>
       </c>
       <c r="C8">
-        <v>0.1286939708747354</v>
+        <v>0.4215107360739125</v>
       </c>
       <c r="D8">
-        <v>0.1844286393235279</v>
+        <v>0.1067291719767738</v>
       </c>
       <c r="E8">
-        <v>0.150835998751937</v>
+        <v>0.07684335984901125</v>
       </c>
       <c r="F8">
-        <v>1.306850338438394</v>
+        <v>0.7872589773048162</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1623137448550551</v>
+        <v>0.07596740247027611</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3284701807485249</v>
+        <v>0.5599994800644339</v>
       </c>
       <c r="N8">
-        <v>1.266671156984074</v>
+        <v>0.7125313803409696</v>
       </c>
       <c r="O8">
-        <v>3.087140316565126</v>
+        <v>1.872264578881243</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9834310707374243</v>
+        <v>2.651557277463723</v>
       </c>
       <c r="C9">
-        <v>0.1712677543411019</v>
+        <v>0.5596070777302202</v>
       </c>
       <c r="D9">
-        <v>0.1888015522033726</v>
+        <v>0.1296923226742308</v>
       </c>
       <c r="E9">
-        <v>0.151818134162788</v>
+        <v>0.08860815082174156</v>
       </c>
       <c r="F9">
-        <v>1.315825453781059</v>
+        <v>0.9194962739318413</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1614649933582868</v>
+        <v>0.08337266773144592</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3802916761950002</v>
+        <v>0.749481438686864</v>
       </c>
       <c r="N9">
-        <v>1.237516110772781</v>
+        <v>0.6462239604782525</v>
       </c>
       <c r="O9">
-        <v>3.099692961937137</v>
+        <v>2.172472071247483</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.12980988716015</v>
+        <v>3.156959914521451</v>
       </c>
       <c r="C10">
-        <v>0.2023739132535241</v>
+        <v>0.6615629235856773</v>
       </c>
       <c r="D10">
-        <v>0.1923012054911339</v>
+        <v>0.1470783913265592</v>
       </c>
       <c r="E10">
-        <v>0.1528409420400223</v>
+        <v>0.09786227519913382</v>
       </c>
       <c r="F10">
-        <v>1.326211335182563</v>
+        <v>1.02665843207501</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1612193798457255</v>
+        <v>0.08965352127453485</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4188671138120057</v>
+        <v>0.8907882035200174</v>
       </c>
       <c r="N10">
-        <v>1.218541556089214</v>
+        <v>0.6034474951870195</v>
       </c>
       <c r="O10">
-        <v>3.118630717820793</v>
+        <v>2.420150379774896</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.196494336769376</v>
+        <v>3.388494731220362</v>
       </c>
       <c r="C11">
-        <v>0.2164858720063023</v>
+        <v>0.7081368946064686</v>
       </c>
       <c r="D11">
-        <v>0.1939550189973858</v>
+        <v>0.1551202000409404</v>
       </c>
       <c r="E11">
-        <v>0.1533714777816968</v>
+        <v>0.1022264168869782</v>
       </c>
       <c r="F11">
-        <v>1.331761850221326</v>
+        <v>1.077982458220276</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1611897731024428</v>
+        <v>0.0927223133766617</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4365235089979933</v>
+        <v>0.9556835201910019</v>
       </c>
       <c r="N11">
-        <v>1.210440145693198</v>
+        <v>0.5854087560937415</v>
       </c>
       <c r="O11">
-        <v>3.129364915390624</v>
+        <v>2.539813155010762</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.221758975671207</v>
+        <v>3.476448504944869</v>
       </c>
       <c r="C12">
-        <v>0.2218239880407111</v>
+        <v>0.7258085561375367</v>
       </c>
       <c r="D12">
-        <v>0.1945901053940702</v>
+        <v>0.1581863377076758</v>
       </c>
       <c r="E12">
-        <v>0.1535817417944401</v>
+        <v>0.1039031350395874</v>
       </c>
       <c r="F12">
-        <v>1.333982585385627</v>
+        <v>1.097823863668211</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1611903729858355</v>
+        <v>0.09391742300147854</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4432248629628148</v>
+        <v>0.9803598949146988</v>
       </c>
       <c r="N12">
-        <v>1.207448586409193</v>
+        <v>0.578794201016251</v>
       </c>
       <c r="O12">
-        <v>3.133735064077626</v>
+        <v>2.58623097394468</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.216317237252724</v>
+        <v>3.457493064307528</v>
       </c>
       <c r="C13">
-        <v>0.2206745902231262</v>
+        <v>0.722000963788048</v>
       </c>
       <c r="D13">
-        <v>0.1944529367853818</v>
+        <v>0.1575250316604553</v>
       </c>
       <c r="E13">
-        <v>0.1535360416652907</v>
+        <v>0.1035409194268695</v>
       </c>
       <c r="F13">
-        <v>1.333499021585141</v>
+        <v>1.093532001010061</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1611897184468702</v>
+        <v>0.09365852251593765</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4417809326093618</v>
+        <v>0.975040634321239</v>
       </c>
       <c r="N13">
-        <v>1.208089479688297</v>
+        <v>0.5802089412750107</v>
       </c>
       <c r="O13">
-        <v>3.132780284921125</v>
+        <v>2.576183307914476</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.19857262598714</v>
+        <v>3.395724939859633</v>
       </c>
       <c r="C14">
-        <v>0.2169251592593469</v>
+        <v>0.709590005369364</v>
       </c>
       <c r="D14">
-        <v>0.1940070914761662</v>
+        <v>0.1553720238898535</v>
       </c>
       <c r="E14">
-        <v>0.1533885888331454</v>
+        <v>0.1023638667978268</v>
       </c>
       <c r="F14">
-        <v>1.331942168375605</v>
+        <v>1.079606468826029</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1611895857278327</v>
+        <v>0.09281995832441226</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4370745293209239</v>
+        <v>0.9577115357343757</v>
       </c>
       <c r="N14">
-        <v>1.210192499603842</v>
+        <v>0.5848601649988083</v>
       </c>
       <c r="O14">
-        <v>3.129718327312446</v>
+        <v>2.543609256628002</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.187705158037375</v>
+        <v>3.357927531213818</v>
       </c>
       <c r="C15">
-        <v>0.2146277646717181</v>
+        <v>0.7019927333799671</v>
       </c>
       <c r="D15">
-        <v>0.1937351454785272</v>
+        <v>0.1540560187568047</v>
       </c>
       <c r="E15">
-        <v>0.1532994882260823</v>
+        <v>0.1016460873542258</v>
       </c>
       <c r="F15">
-        <v>1.331004035156624</v>
+        <v>1.071130674312442</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1611910426747443</v>
+        <v>0.09231069475358566</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4341936997467286</v>
+        <v>0.947110659067242</v>
       </c>
       <c r="N15">
-        <v>1.211490593335377</v>
+        <v>0.5877377185047123</v>
       </c>
       <c r="O15">
-        <v>3.127882571649337</v>
+        <v>2.523803555401912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.12545373749407</v>
+        <v>3.141864853605114</v>
       </c>
       <c r="C16">
-        <v>0.2014508691613912</v>
+        <v>0.658523708945836</v>
       </c>
       <c r="D16">
-        <v>0.1921943630473493</v>
+        <v>0.1465556618647952</v>
       </c>
       <c r="E16">
-        <v>0.1528075815039287</v>
+        <v>0.09758033522536635</v>
       </c>
       <c r="F16">
-        <v>1.325865224984582</v>
+        <v>1.023359106235247</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1612229674294383</v>
+        <v>0.08945744400108424</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4177153788507084</v>
+        <v>0.8865606392683105</v>
       </c>
       <c r="N16">
-        <v>1.219081673563124</v>
+        <v>0.6046559642010081</v>
       </c>
       <c r="O16">
-        <v>3.11797190894174</v>
+        <v>2.412479102283584</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.087288296636984</v>
+        <v>3.00976298046902</v>
       </c>
       <c r="C17">
-        <v>0.1933572557215371</v>
+        <v>0.6319114533642676</v>
       </c>
       <c r="D17">
-        <v>0.1912649266208888</v>
+        <v>0.1419896760920523</v>
       </c>
       <c r="E17">
-        <v>0.1525225104456815</v>
+        <v>0.09512698780503115</v>
       </c>
       <c r="F17">
-        <v>1.322924348012634</v>
+        <v>0.9947370286819961</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1612635875585369</v>
+        <v>0.08776305018260899</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4076339680218837</v>
+        <v>0.8495818106974298</v>
       </c>
       <c r="N17">
-        <v>1.223874371549449</v>
+        <v>0.615406890756752</v>
       </c>
       <c r="O17">
-        <v>3.11243526347792</v>
+        <v>2.346043942660941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.065345646410435</v>
+        <v>2.933931623649755</v>
       </c>
       <c r="C18">
-        <v>0.1886984252591049</v>
+        <v>0.6166225535357626</v>
       </c>
       <c r="D18">
-        <v>0.190736160454918</v>
+        <v>0.1393758271224925</v>
       </c>
       <c r="E18">
-        <v>0.1523646885631749</v>
+        <v>0.09373029711016301</v>
       </c>
       <c r="F18">
-        <v>1.32131056690146</v>
+        <v>0.9785144809471689</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1612946809672522</v>
+        <v>0.08680822990424275</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4018456128867243</v>
+        <v>0.8283694968966557</v>
       </c>
       <c r="N18">
-        <v>1.226680908694902</v>
+        <v>0.6217234704746915</v>
       </c>
       <c r="O18">
-        <v>3.109450176644003</v>
+        <v>2.308484045237122</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.057917839449715</v>
+        <v>2.908280964468986</v>
       </c>
       <c r="C19">
-        <v>0.1871204151584323</v>
+        <v>0.6114488354079128</v>
       </c>
       <c r="D19">
-        <v>0.1905581310496842</v>
+        <v>0.1384928977734461</v>
       </c>
       <c r="E19">
-        <v>0.1523123085999636</v>
+        <v>0.09325982059241866</v>
       </c>
       <c r="F19">
-        <v>1.320777515849585</v>
+        <v>0.9730619988503264</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1613065362003567</v>
+        <v>0.08648826029698853</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3998875374042967</v>
+        <v>0.8211967525821322</v>
       </c>
       <c r="N19">
-        <v>1.227639724314038</v>
+        <v>0.6238846334803796</v>
       </c>
       <c r="O19">
-        <v>3.108473714587063</v>
+        <v>2.295875983018675</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.091350139063707</v>
+        <v>3.023809610694002</v>
       </c>
       <c r="C20">
-        <v>0.1942192089349817</v>
+        <v>0.6347424842234375</v>
       </c>
       <c r="D20">
-        <v>0.1913632647204793</v>
+        <v>0.142474438748863</v>
       </c>
       <c r="E20">
-        <v>0.152552221082221</v>
+        <v>0.09538664606635905</v>
       </c>
       <c r="F20">
-        <v>1.323229363468144</v>
+        <v>0.9977587963185499</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1612584634590419</v>
+        <v>0.08794135903013967</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.408706097362554</v>
+        <v>0.8535122829081061</v>
       </c>
       <c r="N20">
-        <v>1.223359015614705</v>
+        <v>0.6142485938153612</v>
       </c>
       <c r="O20">
-        <v>3.11300400275681</v>
+        <v>2.353047924754321</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.203784313084952</v>
+        <v>3.41385986971062</v>
       </c>
       <c r="C21">
-        <v>0.2180266168302296</v>
+        <v>0.7132343908639029</v>
       </c>
       <c r="D21">
-        <v>0.1941378081048413</v>
+        <v>0.1560038329284765</v>
       </c>
       <c r="E21">
-        <v>0.1534316454070215</v>
+        <v>0.1027089253477875</v>
       </c>
       <c r="F21">
-        <v>1.332396226789328</v>
+        <v>1.083685414708825</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1611893041385954</v>
+        <v>0.09306534699965141</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4384565023099327</v>
+        <v>0.9627986318358808</v>
       </c>
       <c r="N21">
-        <v>1.209572721532176</v>
+        <v>0.5834880163902696</v>
       </c>
       <c r="O21">
-        <v>3.130609406952829</v>
+        <v>2.553146255732713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.277339966275463</v>
+        <v>3.670414799059017</v>
       </c>
       <c r="C22">
-        <v>0.2335523460451725</v>
+        <v>0.7647418728782327</v>
       </c>
       <c r="D22">
-        <v>0.1960025307822519</v>
+        <v>0.1649687002819462</v>
       </c>
       <c r="E22">
-        <v>0.1540609566875588</v>
+        <v>0.1076359950935917</v>
       </c>
       <c r="F22">
-        <v>1.339080249918709</v>
+        <v>1.142229178476683</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1612129508689932</v>
+        <v>0.09660801247990491</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4579889198584866</v>
+        <v>1.034824812448676</v>
       </c>
       <c r="N22">
-        <v>1.201007150546609</v>
+        <v>0.5646513444141092</v>
       </c>
       <c r="O22">
-        <v>3.143895588780737</v>
+        <v>2.690409151974592</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.238075580807845</v>
+        <v>3.533321923110861</v>
       </c>
       <c r="C23">
-        <v>0.225269148244962</v>
+        <v>0.7372297177897735</v>
       </c>
       <c r="D23">
-        <v>0.1950026114233765</v>
+        <v>0.1601721368700453</v>
       </c>
       <c r="E23">
-        <v>0.153720096727568</v>
+        <v>0.1049927055149205</v>
       </c>
       <c r="F23">
-        <v>1.335449420411166</v>
+        <v>1.110752423776177</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.161194030048641</v>
+        <v>0.09469857825281736</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4475560753049805</v>
+        <v>0.9963232816787979</v>
       </c>
       <c r="N23">
-        <v>1.205538069296843</v>
+        <v>0.5745846692850947</v>
       </c>
       <c r="O23">
-        <v>3.136641437087292</v>
+        <v>2.616521184531706</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.089513782602921</v>
+        <v>3.017458771776489</v>
       </c>
       <c r="C24">
-        <v>0.1938295376376971</v>
+        <v>0.6334625419468125</v>
       </c>
       <c r="D24">
-        <v>0.191318788683347</v>
+        <v>0.142255242808659</v>
       </c>
       <c r="E24">
-        <v>0.1525387699969123</v>
+        <v>0.0952692118142906</v>
       </c>
       <c r="F24">
-        <v>1.323091226235562</v>
+        <v>0.9963919331392219</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1612607559538759</v>
+        <v>0.0878606856500852</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4082213640474635</v>
+        <v>0.8517351700855684</v>
       </c>
       <c r="N24">
-        <v>1.223591848697843</v>
+        <v>0.6147718379992071</v>
       </c>
       <c r="O24">
-        <v>3.112746258992985</v>
+        <v>2.349879455297327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9296177607383243</v>
+        <v>2.46661020535646</v>
       </c>
       <c r="C25">
-        <v>0.1597801857510888</v>
+        <v>0.5221875913935321</v>
       </c>
       <c r="D25">
-        <v>0.1875679833430439</v>
+        <v>0.1233962978576102</v>
       </c>
       <c r="E25">
-        <v>0.1514994746219926</v>
+        <v>0.08532515575642918</v>
       </c>
       <c r="F25">
-        <v>1.312732273432545</v>
+        <v>0.8820928806775186</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1616282430514531</v>
+        <v>0.08123106896023558</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.366183764255851</v>
+        <v>0.6979034052670983</v>
       </c>
       <c r="N25">
-        <v>1.244973677795059</v>
+        <v>0.6631609691018099</v>
       </c>
       <c r="O25">
-        <v>3.094594007563018</v>
+        <v>2.086846952690934</v>
       </c>
     </row>
   </sheetData>
